--- a/sputnik/personal/ee/201ee.xlsx
+++ b/sputnik/personal/ee/201ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,17 +36,29 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>27,05,2019</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -142,7 +145,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -167,6 +170,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -227,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,10 +263,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,7 +297,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -470,463 +472,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F18:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
-        <v>43274</v>
+        <v>43605</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>3439</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>4015</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>986</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>1140</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
-        <v>43323</v>
+        <v>43653</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>3539</v>
+        <v>4158</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="E4" s="8">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F2:F7" si="1">D4*E4</f>
+        <v>642.07000000000005</v>
+      </c>
+      <c r="G4" s="15">
+        <f>SUM(F4,F5)</f>
+        <v>714.97</v>
+      </c>
+      <c r="H4" s="15">
+        <v>714.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>986</v>
+        <v>1170</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12">
+        <v>43681</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43344</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3634</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="13">
+        <v>4273</v>
+      </c>
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
+        <v>115</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
-        <v>427.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+        <v>516.35</v>
+      </c>
+      <c r="G6" s="15">
+        <f>SUM(F6,F7)</f>
+        <v>569.81000000000006</v>
+      </c>
+      <c r="H6" s="15">
+        <v>569.80999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>990</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="13">
+        <v>1192</v>
+      </c>
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43372</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>53.46</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="12">
+        <v>43710</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>3820</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="13">
+        <v>4437</v>
+      </c>
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
-        <v>186</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.5</v>
+        <v>164</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+        <f>D8*E8</f>
+        <v>736.36</v>
+      </c>
+      <c r="G8" s="15">
+        <f>SUM(F8,F9)</f>
+        <v>814.12</v>
+      </c>
+      <c r="H8" s="15">
+        <v>814.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>1067</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="13">
+        <v>1224</v>
+      </c>
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>180.95000000000002</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <f>D9*E9</f>
+        <v>77.760000000000005</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12">
+        <v>43739</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>4015</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D17" si="2">C10-C8</f>
-        <v>195</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.57</v>
+      <c r="C10" s="13">
+        <v>4650</v>
+      </c>
+      <c r="D10" s="13">
+        <f>C10-C8</f>
+        <v>213</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F15" si="3">D10*E10</f>
-        <v>891.15000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+        <f>D10*E10</f>
+        <v>956.37</v>
+      </c>
+      <c r="G10" s="15">
+        <f>SUM(F10,F11)</f>
+        <v>1165.3499999999999</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1165.3499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
-        <v>1140</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.39</v>
+      <c r="C11" s="13">
+        <v>1310</v>
+      </c>
+      <c r="D11" s="13">
+        <f>C11-C9</f>
+        <v>86</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="3"/>
-        <v>174.47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43653</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4158</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="3"/>
-        <v>642.07000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1170</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="3"/>
-        <v>72.900000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>43681</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4273</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="E14" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="3"/>
-        <v>516.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1192</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="E15" s="13">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="3"/>
-        <v>53.46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>43710</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
-        <v>4437</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
-      <c r="E16" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
-        <v>736.36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1224</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>77.760000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>43739</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4650</v>
-      </c>
-      <c r="D18" s="13">
-        <f>C18-C16</f>
-        <v>213</v>
-      </c>
-      <c r="E18" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>956.37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1310</v>
-      </c>
-      <c r="D19" s="13">
-        <f>C19-C17</f>
-        <v>86</v>
-      </c>
-      <c r="E19" s="13">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="6">
-        <f>D19*E19</f>
+        <f>D11*E11</f>
         <v>208.98000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="15">
+        <f>SUM(G2:G11)</f>
+        <v>3264.25</v>
+      </c>
+      <c r="H12" s="15">
+        <f>SUM(H2:H11)</f>
+        <v>3264.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -936,12 +793,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -950,12 +807,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/201ee.xlsx
+++ b/sputnik/personal/ee/201ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +263,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +298,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -472,17 +474,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
@@ -497,7 +499,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -523,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43605</v>
       </c>
@@ -539,7 +541,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -553,7 +555,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43653</v>
       </c>
@@ -571,7 +573,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F2:F7" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
         <v>642.07000000000005</v>
       </c>
       <c r="G4" s="15">
@@ -582,7 +584,7 @@
         <v>714.97</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -604,7 +606,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43681</v>
       </c>
@@ -633,7 +635,7 @@
         <v>569.80999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
         <v>1</v>
@@ -655,7 +657,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43710</v>
       </c>
@@ -684,7 +686,7 @@
         <v>814.12</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
         <v>1</v>
@@ -706,7 +708,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43739</v>
       </c>
@@ -735,7 +737,7 @@
         <v>1165.3499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>1</v>
@@ -757,33 +759,84 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>43979</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4894</v>
+      </c>
+      <c r="D12" s="13">
+        <f>C12-C10</f>
+        <v>244</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12*E12</f>
+        <v>1095.56</v>
+      </c>
+      <c r="G12" s="15">
+        <f>SUM(F12,F13)</f>
+        <v>1484.36</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1484.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1470</v>
+      </c>
+      <c r="D13" s="13">
+        <f>C13-C11</f>
+        <v>160</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13*E13</f>
+        <v>388.8</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G14" s="15">
         <f>SUM(G2:G11)</f>
         <v>3264.25</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H14" s="15">
         <f>SUM(H2:H11)</f>
         <v>3264.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -793,12 +846,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -807,12 +860,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/201ee.xlsx
+++ b/sputnik/personal/ee/201ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" ref="F8:F13" si="2">D8*E8</f>
         <v>736.36</v>
       </c>
       <c r="G8" s="15">
@@ -702,7 +702,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>77.760000000000005</v>
       </c>
       <c r="G9" s="15"/>
@@ -719,14 +719,14 @@
         <v>4650</v>
       </c>
       <c r="D10" s="13">
-        <f>C10-C8</f>
+        <f t="shared" ref="D10:D17" si="3">C10-C8</f>
         <v>213</v>
       </c>
       <c r="E10" s="14">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>956.37</v>
       </c>
       <c r="G10" s="15">
@@ -746,14 +746,14 @@
         <v>1310</v>
       </c>
       <c r="D11" s="13">
-        <f>C11-C9</f>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="E11" s="13">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>208.98000000000002</v>
       </c>
       <c r="G11" s="15"/>
@@ -770,14 +770,14 @@
         <v>4894</v>
       </c>
       <c r="D12" s="13">
-        <f>C12-C10</f>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="E12" s="14">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*E12</f>
+        <f t="shared" si="2"/>
         <v>1095.56</v>
       </c>
       <c r="G12" s="15">
@@ -797,46 +797,148 @@
         <v>1470</v>
       </c>
       <c r="D13" s="13">
-        <f>C13-C11</f>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="E13" s="13">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*E13</f>
+        <f t="shared" si="2"/>
         <v>388.8</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
+      <c r="A14" s="12">
+        <v>44026</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>5028</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
+        <v>601.66000000000008</v>
       </c>
       <c r="G14" s="15">
-        <f>SUM(G2:G11)</f>
-        <v>3264.25</v>
+        <f>SUM(F14,F15)</f>
+        <v>681.85000000000014</v>
       </c>
       <c r="H14" s="15">
-        <f>SUM(H2:H11)</f>
-        <v>3264.25</v>
+        <v>681.85</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1503</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="4"/>
+        <v>80.190000000000012</v>
+      </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>44041</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <v>5135</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
+        <v>503.96999999999997</v>
+      </c>
+      <c r="G16" s="15">
+        <f>SUM(F16,F17)</f>
+        <v>572.81999999999994</v>
+      </c>
+      <c r="H16" s="15">
+        <v>572.80999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1530</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="5"/>
+        <v>68.849999999999994</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="15">
+        <f>SUM(G2:G17)</f>
+        <v>6003.28</v>
+      </c>
+      <c r="H18" s="15">
+        <f>SUM(H2:H17)</f>
+        <v>6003.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/201ee.xlsx
+++ b/sputnik/personal/ee/201ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -913,32 +913,83 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
+      <c r="A18" s="12">
+        <v>44068</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5280</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" ref="D18:D19" si="6">C18-C16</f>
+        <v>145</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
+        <v>682.95</v>
       </c>
       <c r="G18" s="15">
-        <f>SUM(G2:G17)</f>
-        <v>6003.28</v>
+        <f>SUM(F18,F19)</f>
+        <v>759.45</v>
       </c>
       <c r="H18" s="15">
-        <f>SUM(H2:H17)</f>
-        <v>6003.27</v>
+        <v>828.3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1560</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="7"/>
+        <v>76.5</v>
+      </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="15">
+        <f>SUM(G2:G19)</f>
+        <v>6762.73</v>
+      </c>
+      <c r="H20" s="15">
+        <f>SUM(H2:H19)</f>
+        <v>6831.5700000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/201ee.xlsx
+++ b/sputnik/personal/ee/201ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -964,32 +964,83 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6" t="s">
-        <v>10</v>
+      <c r="A20" s="12">
+        <v>44110</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>5560</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" ref="D20:D21" si="8">C20-C18</f>
+        <v>280</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="9">D20*E20</f>
+        <v>1318.8</v>
       </c>
       <c r="G20" s="15">
-        <f>SUM(G2:G19)</f>
-        <v>6762.73</v>
+        <f>SUM(F20,F21)</f>
+        <v>1729.35</v>
       </c>
       <c r="H20" s="15">
-        <f>SUM(H2:H19)</f>
-        <v>6831.5700000000006</v>
+        <v>1729.35</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1721</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="8"/>
+        <v>161</v>
+      </c>
+      <c r="E21" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="9"/>
+        <v>410.54999999999995</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="15">
+        <f>SUM(G2:G21)</f>
+        <v>8492.08</v>
+      </c>
+      <c r="H22" s="15">
+        <f>SUM(H2:H21)</f>
+        <v>8560.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/201ee.xlsx
+++ b/sputnik/personal/ee/201ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -97,12 +97,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -132,16 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -150,9 +153,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -171,6 +171,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -478,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -500,547 +503,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43605</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="14">
+        <v>44110</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>4015</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="C2" s="11">
+        <v>5560</v>
+      </c>
+      <c r="D2" s="11">
+        <f>C2-C4</f>
+        <v>280</v>
+      </c>
+      <c r="E2" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F13" si="0">D2*E2</f>
+        <v>1318.8</v>
+      </c>
+      <c r="G2" s="13">
+        <f>SUM(F2,F3)</f>
+        <v>1729.35</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1729.35</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>1140</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="C3" s="11">
+        <v>1721</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D11" si="1">C3-C5</f>
+        <v>161</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>410.54999999999995</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43653</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="10">
+        <v>44068</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>4158</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>143</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="C4" s="11">
+        <v>5280</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>682.95</v>
+      </c>
+      <c r="G4" s="13">
+        <f>SUM(F4,F5)</f>
+        <v>759.45</v>
+      </c>
+      <c r="H4" s="13">
+        <v>828.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1560</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>44041</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5135</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>503.96999999999997</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(F6,F7)</f>
+        <v>572.81999999999994</v>
+      </c>
+      <c r="H6" s="13">
+        <v>572.80999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1530</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>68.849999999999994</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>44026</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5028</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="E8" s="12">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
-        <v>642.07000000000005</v>
-      </c>
-      <c r="G4" s="15">
-        <f>SUM(F4,F5)</f>
-        <v>714.97</v>
-      </c>
-      <c r="H4" s="15">
-        <v>714.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>601.66000000000008</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(F8,F9)</f>
+        <v>681.85000000000014</v>
+      </c>
+      <c r="H8" s="13">
+        <v>681.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>1170</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C9" s="11">
+        <v>1503</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E5" s="3">
+        <v>80.190000000000012</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>43979</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4894</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>1095.56</v>
+      </c>
+      <c r="G10" s="13">
+        <f>SUM(F10,F11)</f>
+        <v>1484.36</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1484.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1470</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="E11" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>72.900000000000006</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>43681</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>388.8</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>43739</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13">
-        <v>4273</v>
-      </c>
-      <c r="D6" s="13">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="E6" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>516.35</v>
-      </c>
-      <c r="G6" s="15">
-        <f>SUM(F6,F7)</f>
-        <v>569.81000000000006</v>
-      </c>
-      <c r="H6" s="15">
-        <v>569.80999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+      <c r="C12" s="11">
+        <v>4650</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13">
-        <v>1192</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>53.46</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>43710</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
-        <v>4437</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" si="0"/>
-        <v>164</v>
-      </c>
-      <c r="E8" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" ref="F8:F13" si="2">D8*E8</f>
-        <v>736.36</v>
-      </c>
-      <c r="G8" s="15">
-        <f>SUM(F8,F9)</f>
-        <v>814.12</v>
-      </c>
-      <c r="H8" s="15">
-        <v>814.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1224</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="2"/>
-        <v>77.760000000000005</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>43739</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
-        <v>4650</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" ref="D10:D17" si="3">C10-C8</f>
-        <v>213</v>
-      </c>
-      <c r="E10" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="2"/>
-        <v>956.37</v>
-      </c>
-      <c r="G10" s="15">
-        <f>SUM(F10,F11)</f>
-        <v>1165.3499999999999</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1165.3499999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="C13" s="11">
         <v>1310</v>
       </c>
-      <c r="D11" s="13">
-        <f t="shared" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>208.98000000000002</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>43979</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
-        <v>4894</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" si="3"/>
-        <v>244</v>
-      </c>
-      <c r="E12" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="2"/>
-        <v>1095.56</v>
-      </c>
-      <c r="G12" s="15">
-        <f>SUM(F12,F13)</f>
-        <v>1484.36</v>
-      </c>
-      <c r="H12" s="15">
-        <v>1484.36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1470</v>
-      </c>
-      <c r="D13" s="13">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>388.8</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>44026</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
-        <v>5028</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" si="3"/>
-        <v>134</v>
-      </c>
-      <c r="E14" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
-        <v>601.66000000000008</v>
-      </c>
-      <c r="G14" s="15">
-        <f>SUM(F14,F15)</f>
-        <v>681.85000000000014</v>
-      </c>
-      <c r="H14" s="15">
-        <v>681.85</v>
+      <c r="A14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="13">
+        <f>SUM(G2:G13)</f>
+        <v>5227.83</v>
+      </c>
+      <c r="H14" s="13">
+        <f>SUM(H2:H13)</f>
+        <v>5296.6699999999992</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1503</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="E15" s="13">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="4"/>
-        <v>80.190000000000012</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>44041</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
-        <v>5135</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="E16" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
-        <v>503.96999999999997</v>
-      </c>
-      <c r="G16" s="15">
-        <f>SUM(F16,F17)</f>
-        <v>572.81999999999994</v>
-      </c>
-      <c r="H16" s="15">
-        <v>572.80999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1530</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="5"/>
-        <v>68.849999999999994</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>44068</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
-        <v>5280</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" ref="D18:D19" si="6">C18-C16</f>
-        <v>145</v>
-      </c>
-      <c r="E18" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
-        <v>682.95</v>
-      </c>
-      <c r="G18" s="15">
-        <f>SUM(F18,F19)</f>
-        <v>759.45</v>
-      </c>
-      <c r="H18" s="15">
-        <v>828.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1560</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="E19" s="13">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="7"/>
-        <v>76.5</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>44110</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
-        <v>5560</v>
-      </c>
-      <c r="D20" s="13">
-        <f t="shared" ref="D20:D21" si="8">C20-C18</f>
-        <v>280</v>
-      </c>
-      <c r="E20" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" ref="F20:F21" si="9">D20*E20</f>
-        <v>1318.8</v>
-      </c>
-      <c r="G20" s="15">
-        <f>SUM(F20,F21)</f>
-        <v>1729.35</v>
-      </c>
-      <c r="H20" s="15">
-        <v>1729.35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1721</v>
-      </c>
-      <c r="D21" s="13">
-        <f t="shared" si="8"/>
-        <v>161</v>
-      </c>
-      <c r="E21" s="13">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="9"/>
-        <v>410.54999999999995</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="15">
-        <f>SUM(G2:G21)</f>
-        <v>8492.08</v>
-      </c>
-      <c r="H22" s="15">
-        <f>SUM(H2:H21)</f>
-        <v>8560.92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13">
+        <f>SUM(H14,-G14)</f>
+        <v>68.839999999999236</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/201ee.xlsx
+++ b/sputnik/personal/ee/201ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -58,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +96,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -174,6 +187,10 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -481,10 +498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,31 +547,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44110</v>
+        <v>44348</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <v>5560</v>
+        <v>5590</v>
       </c>
       <c r="D2" s="11">
         <f>C2-C4</f>
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="E2" s="12">
         <v>4.71</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F13" si="0">D2*E2</f>
-        <v>1318.8</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>141.30000000000001</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>1729.35</v>
+        <v>143.85000000000002</v>
       </c>
       <c r="H2" s="13">
-        <v>1729.35</v>
+        <v>143.85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -563,49 +580,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D3" s="11">
-        <f t="shared" ref="D3:D11" si="1">C3-C5</f>
-        <v>161</v>
+        <f t="shared" ref="D3" si="1">C3-C5</f>
+        <v>1</v>
       </c>
       <c r="E3" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>410.54999999999995</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>44068</v>
+      <c r="A4" s="15">
+        <v>44110</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="11">
-        <v>5280</v>
+        <v>5560</v>
       </c>
       <c r="D4" s="11">
-        <f t="shared" si="1"/>
-        <v>145</v>
+        <f>C4-C6</f>
+        <v>280</v>
       </c>
       <c r="E4" s="12">
         <v>4.71</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>682.95</v>
+        <f t="shared" ref="F4:F13" si="2">D4*E4</f>
+        <v>1318.8</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>759.45</v>
+        <v>1729.35</v>
       </c>
       <c r="H4" s="13">
-        <v>828.3</v>
+        <v>1729.35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -614,49 +631,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="11">
-        <v>1560</v>
+        <v>1721</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" ref="D5:D13" si="3">C5-C7</f>
+        <v>161</v>
       </c>
       <c r="E5" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>76.5</v>
+        <f t="shared" si="2"/>
+        <v>410.54999999999995</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>44041</v>
+        <v>44068</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <v>5135</v>
+        <v>5280</v>
       </c>
       <c r="D6" s="11">
-        <f t="shared" si="1"/>
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>145</v>
       </c>
       <c r="E6" s="12">
         <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>503.96999999999997</v>
-      </c>
-      <c r="G6" s="13">
+        <f t="shared" si="2"/>
+        <v>682.95</v>
+      </c>
+      <c r="G6" s="16">
         <f>SUM(F6,F7)</f>
-        <v>572.81999999999994</v>
-      </c>
-      <c r="H6" s="13">
-        <v>572.80999999999995</v>
+        <v>759.45</v>
+      </c>
+      <c r="H6" s="16">
+        <v>828.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,49 +682,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>1530</v>
+        <v>1560</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="E7" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>68.849999999999994</v>
+        <f t="shared" si="2"/>
+        <v>76.5</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>44026</v>
+        <v>44041</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <v>5028</v>
+        <v>5135</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" si="1"/>
-        <v>134</v>
+        <f t="shared" si="3"/>
+        <v>107</v>
       </c>
       <c r="E8" s="12">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>601.66000000000008</v>
+        <f t="shared" si="2"/>
+        <v>503.96999999999997</v>
       </c>
       <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
-        <v>681.85000000000014</v>
+        <v>572.81999999999994</v>
       </c>
       <c r="H8" s="13">
-        <v>681.85</v>
+        <v>572.80999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,49 +733,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="11">
-        <v>1503</v>
+        <v>1530</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="E9" s="11">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>80.190000000000012</v>
+        <f t="shared" si="2"/>
+        <v>68.849999999999994</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>43979</v>
+        <v>44026</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="11">
-        <v>4894</v>
+        <v>5028</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" si="1"/>
-        <v>244</v>
+        <f t="shared" si="3"/>
+        <v>134</v>
       </c>
       <c r="E10" s="12">
         <v>4.49</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>1095.56</v>
+        <f t="shared" si="2"/>
+        <v>601.66000000000008</v>
       </c>
       <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
-        <v>1484.36</v>
+        <v>681.85000000000014</v>
       </c>
       <c r="H10" s="13">
-        <v>1484.36</v>
+        <v>681.85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,37 +784,50 @@
         <v>1</v>
       </c>
       <c r="C11" s="11">
-        <v>1470</v>
+        <v>1503</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="1"/>
-        <v>160</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="E11" s="11">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>388.8</v>
+        <f t="shared" si="2"/>
+        <v>80.190000000000012</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>43739</v>
+        <v>43979</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="11">
-        <v>4650</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+        <v>4894</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>1095.56</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(F12,F13)</f>
+        <v>1484.36</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1484.36</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
@@ -805,43 +835,81 @@
         <v>1</v>
       </c>
       <c r="C13" s="11">
-        <v>1310</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="5"/>
+        <v>1470</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>388.8</v>
+      </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="13">
-        <f>SUM(G2:G13)</f>
-        <v>5227.83</v>
-      </c>
-      <c r="H14" s="13">
-        <f>SUM(H2:H13)</f>
-        <v>5296.6699999999992</v>
-      </c>
+      <c r="A14" s="10">
+        <v>43739</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>4650</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1310</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="5"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="13">
-        <f>SUM(H14,-G14)</f>
-        <v>68.839999999999236</v>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="13">
+        <f>SUM(G2:G15)</f>
+        <v>5371.6799999999994</v>
+      </c>
+      <c r="H16" s="13">
+        <f>SUM(H2:H15)</f>
+        <v>5440.5199999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13">
+        <f>SUM(H16,-G16)</f>
+        <v>68.840000000000146</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/201ee.xlsx
+++ b/sputnik/personal/ee/201ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -498,10 +498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,31 +547,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44348</v>
+        <v>44382</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <v>5590</v>
+        <v>5684</v>
       </c>
       <c r="D2" s="11">
         <f>C2-C4</f>
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E2" s="12">
         <v>4.71</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>141.30000000000001</v>
+        <v>442.74</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>143.85000000000002</v>
+        <v>478.44</v>
       </c>
       <c r="H2" s="13">
-        <v>143.85</v>
+        <v>478.44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,49 +580,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>1722</v>
+        <v>1736</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E3" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>2.5499999999999998</v>
+        <v>35.699999999999996</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44110</v>
+        <v>44348</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="11">
-        <v>5560</v>
+        <v>5590</v>
       </c>
       <c r="D4" s="11">
         <f>C4-C6</f>
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="E4" s="12">
         <v>4.71</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F13" si="2">D4*E4</f>
-        <v>1318.8</v>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>141.30000000000001</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>1729.35</v>
+        <v>143.85000000000002</v>
       </c>
       <c r="H4" s="13">
-        <v>1729.35</v>
+        <v>143.85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,49 +631,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="11">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:D13" si="3">C5-C7</f>
-        <v>161</v>
+        <f t="shared" ref="D5" si="3">C5-C7</f>
+        <v>1</v>
       </c>
       <c r="E5" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>410.54999999999995</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>44068</v>
+      <c r="A6" s="15">
+        <v>44110</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <v>5280</v>
+        <v>5560</v>
       </c>
       <c r="D6" s="11">
-        <f t="shared" si="3"/>
-        <v>145</v>
+        <f>C6-C8</f>
+        <v>280</v>
       </c>
       <c r="E6" s="12">
         <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="2"/>
-        <v>682.95</v>
-      </c>
-      <c r="G6" s="16">
+        <f t="shared" ref="F6:F15" si="4">D6*E6</f>
+        <v>1318.8</v>
+      </c>
+      <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>759.45</v>
-      </c>
-      <c r="H6" s="16">
-        <v>828.3</v>
+        <v>1729.35</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1729.35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,49 +682,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>1560</v>
+        <v>1721</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f t="shared" ref="D7:D15" si="5">C7-C9</f>
+        <v>161</v>
       </c>
       <c r="E7" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>76.5</v>
+        <f t="shared" si="4"/>
+        <v>410.54999999999995</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>44041</v>
+        <v>44068</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <v>5135</v>
+        <v>5280</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" si="3"/>
-        <v>107</v>
+        <f t="shared" si="5"/>
+        <v>145</v>
       </c>
       <c r="E8" s="12">
         <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="2"/>
-        <v>503.96999999999997</v>
-      </c>
-      <c r="G8" s="13">
+        <f t="shared" si="4"/>
+        <v>682.95</v>
+      </c>
+      <c r="G8" s="16">
         <f>SUM(F8,F9)</f>
-        <v>572.81999999999994</v>
-      </c>
-      <c r="H8" s="13">
-        <v>572.80999999999995</v>
+        <v>759.45</v>
+      </c>
+      <c r="H8" s="16">
+        <v>828.3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,49 +733,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="11">
-        <v>1530</v>
+        <v>1560</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>30</v>
       </c>
       <c r="E9" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>68.849999999999994</v>
+        <f t="shared" si="4"/>
+        <v>76.5</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>44026</v>
+        <v>44041</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="11">
-        <v>5028</v>
+        <v>5135</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" si="3"/>
-        <v>134</v>
+        <f t="shared" si="5"/>
+        <v>107</v>
       </c>
       <c r="E10" s="12">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>601.66000000000008</v>
+        <f t="shared" si="4"/>
+        <v>503.96999999999997</v>
       </c>
       <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
-        <v>681.85000000000014</v>
+        <v>572.81999999999994</v>
       </c>
       <c r="H10" s="13">
-        <v>681.85</v>
+        <v>572.80999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,49 +784,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="11">
-        <v>1503</v>
+        <v>1530</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="E11" s="11">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>80.190000000000012</v>
+        <f t="shared" si="4"/>
+        <v>68.849999999999994</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>43979</v>
+        <v>44026</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="11">
-        <v>4894</v>
+        <v>5028</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="3"/>
-        <v>244</v>
+        <f t="shared" si="5"/>
+        <v>134</v>
       </c>
       <c r="E12" s="12">
         <v>4.49</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>1095.56</v>
+        <f t="shared" si="4"/>
+        <v>601.66000000000008</v>
       </c>
       <c r="G12" s="13">
         <f>SUM(F12,F13)</f>
-        <v>1484.36</v>
+        <v>681.85000000000014</v>
       </c>
       <c r="H12" s="13">
-        <v>1484.36</v>
+        <v>681.85</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,37 +835,50 @@
         <v>1</v>
       </c>
       <c r="C13" s="11">
-        <v>1470</v>
+        <v>1503</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="3"/>
-        <v>160</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="E13" s="11">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>388.8</v>
+        <f t="shared" si="4"/>
+        <v>80.190000000000012</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>43739</v>
+        <v>43979</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="11">
-        <v>4650</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+        <v>4894</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="5"/>
+        <v>244</v>
+      </c>
+      <c r="E14" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>1095.56</v>
+      </c>
+      <c r="G14" s="13">
+        <f>SUM(F14,F15)</f>
+        <v>1484.36</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1484.36</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
@@ -873,42 +886,80 @@
         <v>1</v>
       </c>
       <c r="C15" s="11">
-        <v>1310</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="5"/>
+        <v>1470</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="4"/>
+        <v>388.8</v>
+      </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="13">
-        <f>SUM(G2:G15)</f>
-        <v>5371.6799999999994</v>
-      </c>
-      <c r="H16" s="13">
-        <f>SUM(H2:H15)</f>
-        <v>5440.5199999999995</v>
-      </c>
+      <c r="A16" s="10">
+        <v>43739</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>4650</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1310</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="13">
-        <f>SUM(H16,-G16)</f>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="13">
+        <f>SUM(G4:G17)</f>
+        <v>5371.6799999999994</v>
+      </c>
+      <c r="H18" s="13">
+        <f>SUM(H4:H17)</f>
+        <v>5440.5199999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13">
+        <f>SUM(H18,-G18)</f>
         <v>68.840000000000146</v>
       </c>
     </row>

--- a/sputnik/personal/ee/201ee.xlsx
+++ b/sputnik/personal/ee/201ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -498,10 +498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,31 +547,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44382</v>
+        <v>44445</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <v>5684</v>
+        <v>5860</v>
       </c>
       <c r="D2" s="11">
         <f>C2-C4</f>
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="E2" s="12">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>442.74</v>
+        <v>872.96</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>478.44</v>
+        <v>1017.6800000000001</v>
       </c>
       <c r="H2" s="13">
-        <v>478.44</v>
+        <v>593.16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,49 +580,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>1736</v>
+        <v>1790</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E3" s="11">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>35.699999999999996</v>
+        <v>144.72</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44348</v>
+        <v>44382</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="11">
-        <v>5590</v>
+        <v>5684</v>
       </c>
       <c r="D4" s="11">
         <f>C4-C6</f>
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E4" s="12">
         <v>4.71</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>141.30000000000001</v>
+        <v>442.74</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>143.85000000000002</v>
+        <v>478.44</v>
       </c>
       <c r="H4" s="13">
-        <v>143.85</v>
+        <v>478.44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,49 +631,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="11">
-        <v>1722</v>
+        <v>1736</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>2.5499999999999998</v>
+        <v>35.699999999999996</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44110</v>
+        <v>44348</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <v>5560</v>
+        <v>5590</v>
       </c>
       <c r="D6" s="11">
         <f>C6-C8</f>
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="E6" s="12">
         <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F15" si="4">D6*E6</f>
-        <v>1318.8</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>141.30000000000001</v>
       </c>
       <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>1729.35</v>
+        <v>143.85000000000002</v>
       </c>
       <c r="H6" s="13">
-        <v>1729.35</v>
+        <v>143.85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,49 +682,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" ref="D7:D15" si="5">C7-C9</f>
-        <v>161</v>
+        <f t="shared" ref="D7" si="5">C7-C9</f>
+        <v>1</v>
       </c>
       <c r="E7" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="4"/>
-        <v>410.54999999999995</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>44068</v>
+      <c r="A8" s="15">
+        <v>44110</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <v>5280</v>
+        <v>5560</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" si="5"/>
-        <v>145</v>
+        <f>C8-C10</f>
+        <v>280</v>
       </c>
       <c r="E8" s="12">
         <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="4"/>
-        <v>682.95</v>
-      </c>
-      <c r="G8" s="16">
+        <f t="shared" ref="F8:F17" si="6">D8*E8</f>
+        <v>1318.8</v>
+      </c>
+      <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
-        <v>759.45</v>
-      </c>
-      <c r="H8" s="16">
-        <v>828.3</v>
+        <v>1729.35</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1729.35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,49 +733,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="11">
-        <v>1560</v>
+        <v>1721</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" si="5"/>
-        <v>30</v>
+        <f t="shared" ref="D9:D17" si="7">C9-C11</f>
+        <v>161</v>
       </c>
       <c r="E9" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="4"/>
-        <v>76.5</v>
+        <f t="shared" si="6"/>
+        <v>410.54999999999995</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>44041</v>
+        <v>44068</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="11">
-        <v>5135</v>
+        <v>5280</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" si="5"/>
-        <v>107</v>
+        <f t="shared" si="7"/>
+        <v>145</v>
       </c>
       <c r="E10" s="12">
         <v>4.71</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="4"/>
-        <v>503.96999999999997</v>
-      </c>
-      <c r="G10" s="13">
+        <f t="shared" si="6"/>
+        <v>682.95</v>
+      </c>
+      <c r="G10" s="16">
         <f>SUM(F10,F11)</f>
-        <v>572.81999999999994</v>
-      </c>
-      <c r="H10" s="13">
-        <v>572.80999999999995</v>
+        <v>759.45</v>
+      </c>
+      <c r="H10" s="16">
+        <v>828.3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,49 +784,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="11">
-        <v>1530</v>
+        <v>1560</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
       <c r="E11" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="4"/>
-        <v>68.849999999999994</v>
+        <f t="shared" si="6"/>
+        <v>76.5</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44026</v>
+        <v>44041</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="11">
-        <v>5028</v>
+        <v>5135</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="5"/>
-        <v>134</v>
+        <f t="shared" si="7"/>
+        <v>107</v>
       </c>
       <c r="E12" s="12">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="4"/>
-        <v>601.66000000000008</v>
+        <f t="shared" si="6"/>
+        <v>503.96999999999997</v>
       </c>
       <c r="G12" s="13">
         <f>SUM(F12,F13)</f>
-        <v>681.85000000000014</v>
+        <v>572.81999999999994</v>
       </c>
       <c r="H12" s="13">
-        <v>681.85</v>
+        <v>572.80999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,49 +835,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="11">
-        <v>1503</v>
+        <v>1530</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="5"/>
-        <v>33</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="E13" s="11">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="4"/>
-        <v>80.190000000000012</v>
+        <f t="shared" si="6"/>
+        <v>68.849999999999994</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>43979</v>
+        <v>44026</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="11">
-        <v>4894</v>
+        <v>5028</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="5"/>
-        <v>244</v>
+        <f t="shared" si="7"/>
+        <v>134</v>
       </c>
       <c r="E14" s="12">
         <v>4.49</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="4"/>
-        <v>1095.56</v>
+        <f t="shared" si="6"/>
+        <v>601.66000000000008</v>
       </c>
       <c r="G14" s="13">
         <f>SUM(F14,F15)</f>
-        <v>1484.36</v>
+        <v>681.85000000000014</v>
       </c>
       <c r="H14" s="13">
-        <v>1484.36</v>
+        <v>681.85</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -886,37 +886,50 @@
         <v>1</v>
       </c>
       <c r="C15" s="11">
-        <v>1470</v>
+        <v>1503</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="5"/>
-        <v>160</v>
+        <f t="shared" si="7"/>
+        <v>33</v>
       </c>
       <c r="E15" s="11">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="4"/>
-        <v>388.8</v>
+        <f t="shared" si="6"/>
+        <v>80.190000000000012</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>43739</v>
+        <v>43979</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="11">
-        <v>4650</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+        <v>4894</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="7"/>
+        <v>244</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="6"/>
+        <v>1095.56</v>
+      </c>
+      <c r="G16" s="13">
+        <f>SUM(F16,F17)</f>
+        <v>1484.36</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1484.36</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -924,43 +937,81 @@
         <v>1</v>
       </c>
       <c r="C17" s="11">
-        <v>1310</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="5"/>
+        <v>1470</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="6"/>
+        <v>388.8</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="13">
-        <f>SUM(G4:G17)</f>
-        <v>5371.6799999999994</v>
-      </c>
-      <c r="H18" s="13">
-        <f>SUM(H4:H17)</f>
-        <v>5440.5199999999995</v>
-      </c>
+      <c r="A18" s="10">
+        <v>43739</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4650</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1310</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="5"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="13">
-        <f>SUM(H18,-G18)</f>
-        <v>68.840000000000146</v>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="13">
+        <f>SUM(G2:G19)</f>
+        <v>6867.8</v>
+      </c>
+      <c r="H20" s="13">
+        <f>SUM(H2:H19)</f>
+        <v>6512.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13">
+        <f>SUM(H20,-G20)</f>
+        <v>-355.68000000000029</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/201ee.xlsx
+++ b/sputnik/personal/ee/201ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -498,10 +498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,31 +547,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <v>5860</v>
+        <v>6120</v>
       </c>
       <c r="D2" s="11">
         <f>C2-C4</f>
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="E2" s="12">
         <v>4.96</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>872.96</v>
+        <v>1289.5999999999999</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>1017.6800000000001</v>
+        <v>1638</v>
       </c>
       <c r="H2" s="13">
-        <v>593.16</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,49 +580,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>1790</v>
+        <v>1920</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="E3" s="11">
         <v>2.68</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>144.72</v>
+        <v>348.40000000000003</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44382</v>
+        <v>44445</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="11">
-        <v>5684</v>
+        <v>5860</v>
       </c>
       <c r="D4" s="11">
         <f>C4-C6</f>
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="E4" s="12">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>442.74</v>
+        <v>872.96</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>478.44</v>
+        <v>1017.6800000000001</v>
       </c>
       <c r="H4" s="13">
-        <v>478.44</v>
+        <v>593.16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,49 +631,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="11">
-        <v>1736</v>
+        <v>1790</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>35.699999999999996</v>
+        <v>144.72</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44348</v>
+        <v>44382</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <v>5590</v>
+        <v>5684</v>
       </c>
       <c r="D6" s="11">
         <f>C6-C8</f>
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E6" s="12">
         <v>4.71</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>141.30000000000001</v>
+        <v>442.74</v>
       </c>
       <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>143.85000000000002</v>
+        <v>478.44</v>
       </c>
       <c r="H6" s="13">
-        <v>143.85</v>
+        <v>478.44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,49 +682,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>1722</v>
+        <v>1736</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E7" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="4"/>
-        <v>2.5499999999999998</v>
+        <v>35.699999999999996</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>44110</v>
+        <v>44348</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <v>5560</v>
+        <v>5590</v>
       </c>
       <c r="D8" s="11">
         <f>C8-C10</f>
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="E8" s="12">
         <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F17" si="6">D8*E8</f>
-        <v>1318.8</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>141.30000000000001</v>
       </c>
       <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
-        <v>1729.35</v>
+        <v>143.85000000000002</v>
       </c>
       <c r="H8" s="13">
-        <v>1729.35</v>
+        <v>143.85</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,49 +733,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="11">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" ref="D9:D17" si="7">C9-C11</f>
-        <v>161</v>
+        <f t="shared" ref="D9" si="7">C9-C11</f>
+        <v>1</v>
       </c>
       <c r="E9" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="6"/>
-        <v>410.54999999999995</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>44068</v>
+      <c r="A10" s="15">
+        <v>44110</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="11">
-        <v>5280</v>
+        <v>5560</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" si="7"/>
-        <v>145</v>
+        <f>C10-C12</f>
+        <v>280</v>
       </c>
       <c r="E10" s="12">
         <v>4.71</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="6"/>
-        <v>682.95</v>
-      </c>
-      <c r="G10" s="16">
+        <f t="shared" ref="F10:F19" si="8">D10*E10</f>
+        <v>1318.8</v>
+      </c>
+      <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
-        <v>759.45</v>
-      </c>
-      <c r="H10" s="16">
-        <v>828.3</v>
+        <v>1729.35</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1729.35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,49 +784,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="11">
-        <v>1560</v>
+        <v>1721</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="7"/>
-        <v>30</v>
+        <f t="shared" ref="D11:D19" si="9">C11-C13</f>
+        <v>161</v>
       </c>
       <c r="E11" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="6"/>
-        <v>76.5</v>
+        <f t="shared" si="8"/>
+        <v>410.54999999999995</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44041</v>
+        <v>44068</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="11">
-        <v>5135</v>
+        <v>5280</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="7"/>
-        <v>107</v>
+        <f t="shared" si="9"/>
+        <v>145</v>
       </c>
       <c r="E12" s="12">
         <v>4.71</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="6"/>
-        <v>503.96999999999997</v>
-      </c>
-      <c r="G12" s="13">
+        <f t="shared" si="8"/>
+        <v>682.95</v>
+      </c>
+      <c r="G12" s="16">
         <f>SUM(F12,F13)</f>
-        <v>572.81999999999994</v>
-      </c>
-      <c r="H12" s="13">
-        <v>572.80999999999995</v>
+        <v>759.45</v>
+      </c>
+      <c r="H12" s="16">
+        <v>828.3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,49 +835,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="11">
-        <v>1530</v>
+        <v>1560</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="7"/>
-        <v>27</v>
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="E13" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="6"/>
-        <v>68.849999999999994</v>
+        <f t="shared" si="8"/>
+        <v>76.5</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44026</v>
+        <v>44041</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="11">
-        <v>5028</v>
+        <v>5135</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="7"/>
-        <v>134</v>
+        <f t="shared" si="9"/>
+        <v>107</v>
       </c>
       <c r="E14" s="12">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="6"/>
-        <v>601.66000000000008</v>
+        <f t="shared" si="8"/>
+        <v>503.96999999999997</v>
       </c>
       <c r="G14" s="13">
         <f>SUM(F14,F15)</f>
-        <v>681.85000000000014</v>
+        <v>572.81999999999994</v>
       </c>
       <c r="H14" s="13">
-        <v>681.85</v>
+        <v>572.80999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -886,49 +886,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="11">
-        <v>1503</v>
+        <v>1530</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="7"/>
-        <v>33</v>
+        <f t="shared" si="9"/>
+        <v>27</v>
       </c>
       <c r="E15" s="11">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="6"/>
-        <v>80.190000000000012</v>
+        <f t="shared" si="8"/>
+        <v>68.849999999999994</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>43979</v>
+        <v>44026</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="11">
-        <v>4894</v>
+        <v>5028</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="7"/>
-        <v>244</v>
+        <f t="shared" si="9"/>
+        <v>134</v>
       </c>
       <c r="E16" s="12">
         <v>4.49</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="6"/>
-        <v>1095.56</v>
+        <f t="shared" si="8"/>
+        <v>601.66000000000008</v>
       </c>
       <c r="G16" s="13">
         <f>SUM(F16,F17)</f>
-        <v>1484.36</v>
+        <v>681.85000000000014</v>
       </c>
       <c r="H16" s="13">
-        <v>1484.36</v>
+        <v>681.85</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,37 +937,50 @@
         <v>1</v>
       </c>
       <c r="C17" s="11">
-        <v>1470</v>
+        <v>1503</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="7"/>
-        <v>160</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="E17" s="11">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="6"/>
-        <v>388.8</v>
+        <f t="shared" si="8"/>
+        <v>80.190000000000012</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>43739</v>
+        <v>43979</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="11">
-        <v>4650</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+        <v>4894</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="9"/>
+        <v>244</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="8"/>
+        <v>1095.56</v>
+      </c>
+      <c r="G18" s="13">
+        <f>SUM(F18,F19)</f>
+        <v>1484.36</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1484.36</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -975,42 +988,80 @@
         <v>1</v>
       </c>
       <c r="C19" s="11">
-        <v>1310</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
+        <v>1470</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="8"/>
+        <v>388.8</v>
+      </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="13">
-        <f>SUM(G2:G19)</f>
-        <v>6867.8</v>
-      </c>
-      <c r="H20" s="13">
-        <f>SUM(H2:H19)</f>
-        <v>6512.12</v>
-      </c>
+      <c r="A20" s="10">
+        <v>43739</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4650</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1310</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="13">
-        <f>SUM(H20,-G20)</f>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="13">
+        <f>SUM(G4:G21)</f>
+        <v>6867.8</v>
+      </c>
+      <c r="H22" s="13">
+        <f>SUM(H4:H21)</f>
+        <v>6512.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13">
+        <f>SUM(H22,-G22)</f>
         <v>-355.68000000000029</v>
       </c>
     </row>

--- a/sputnik/personal/ee/201ee.xlsx
+++ b/sputnik/personal/ee/201ee.xlsx
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,6 +191,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -501,7 +502,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -617,11 +618,11 @@
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
         <v>872.96</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="17">
         <f>SUM(F4,F5)</f>
         <v>1017.6800000000001</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="17">
         <v>593.16</v>
       </c>
     </row>
@@ -1044,12 +1045,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="13">
-        <f>SUM(G4:G21)</f>
-        <v>6867.8</v>
+        <f>SUM(G2:G21)</f>
+        <v>8505.7999999999993</v>
       </c>
       <c r="H22" s="13">
-        <f>SUM(H4:H21)</f>
-        <v>6512.12</v>
+        <f>SUM(H2:H21)</f>
+        <v>8150.12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1062,7 +1063,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13">
         <f>SUM(H22,-G22)</f>
-        <v>-355.68000000000029</v>
+        <v>-355.67999999999938</v>
       </c>
     </row>
   </sheetData>
